--- a/documentation/Planification-Taches.xlsx
+++ b/documentation/Planification-Taches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\WebDynamique\web_dynamique_24632-main-LATEST\proj333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\WebDynamique\web_dynamique_24632-main-LATEST\projetweb1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7BE68-4261-4F44-81D8-76A67DF7C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6FDB63-7BBD-4B12-A8BE-248977895352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2565" windowWidth="26550" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -676,6 +676,18 @@
   </si>
   <si>
     <t>administrer efficacement la plateforme et assurer son bon fonctionnement.</t>
+  </si>
+  <si>
+    <t>T2.0</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Fix webdev distant server, project architecture and naming convention and enhance github version control</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1538,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1992,7 @@
         <v>194</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1995,288 +2007,292 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45881</v>
+      </c>
+      <c r="L17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>192</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>133</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2284,93 +2300,99 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>147</v>
+        <v>111</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" t="s">
-        <v>151</v>
+        <v>58</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -2378,14 +2400,14 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" t="s">
+        <v>151</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -2393,14 +2415,14 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -2408,14 +2430,14 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2423,14 +2445,14 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -2438,14 +2460,14 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -2453,14 +2475,14 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>153</v>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2468,14 +2490,14 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" t="s">
-        <v>154</v>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -2483,14 +2505,14 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>70</v>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -2498,13 +2520,14 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>71</v>
+      <c r="C51" s="10"/>
+      <c r="D51" t="s">
+        <v>154</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -2512,46 +2535,75 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="8"/>
+        <v>131</v>
+      </c>
       <c r="D53" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
-      <c r="H53" s="10" t="s">
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L61" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="13"/>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documentation/Planification-Taches.xlsx
+++ b/documentation/Planification-Taches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\WebDynamique\web_dynamique_24632-main-LATEST\projetweb1\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\WebDynamique\web_dynamique_24632-main-LATEST\projetweb2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6FDB63-7BBD-4B12-A8BE-248977895352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEA771-9735-4C6C-8996-F868B0D6653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-735" yWindow="2625" windowWidth="29010" windowHeight="11955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Implement logic to check for existing emails/usernames and handle database insertion.</t>
   </si>
   <si>
-    <t>Configure and implement email service for registration confirmation.</t>
-  </si>
-  <si>
     <t>T1.5</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>T2.5</t>
   </si>
   <si>
-    <t>Create a dedicated component on the homepage to display these featured auctions.</t>
-  </si>
-  <si>
     <t>T2.6</t>
   </si>
   <si>
@@ -502,9 +496,6 @@
     <t>Set up server-side logic to handle, resize, and store the uploaded images, and save the paths in the new 'images' table.</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>Develop a backend endpoint to fetch user's personal info.</t>
   </si>
   <si>
@@ -523,9 +514,6 @@
     <t>Develop a backend endpoint to fetch and display a member's offer history on their profile page.</t>
   </si>
   <si>
-    <t>update the css/style and check with lord stampee before last sprint</t>
-  </si>
-  <si>
     <t>finalize css/style, js bugs</t>
   </si>
   <si>
@@ -557,12 +545,6 @@
   </si>
   <si>
     <t>2h</t>
-  </si>
-  <si>
-    <t>T?</t>
-  </si>
-  <si>
-    <t>Short  Description</t>
   </si>
   <si>
     <t>Finalize Technical Deliverables:</t>
@@ -688,6 +670,45 @@
   </si>
   <si>
     <t>Fix webdev distant server, project architecture and naming convention and enhance github version control</t>
+  </si>
+  <si>
+    <t>crud user</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>saisir un timbre avec image</t>
+  </si>
+  <si>
+    <t>gestion des image</t>
+  </si>
+  <si>
+    <t>update the css/style and check with lord stampee before last sprint and fix burger menu on mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a dedicated component on the homepage to display these featured auctions. </t>
+  </si>
+  <si>
+    <t>make mockup data + admin privileges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRA </t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>plus bidding history</t>
+  </si>
+  <si>
+    <t>plus time left etc</t>
+  </si>
+  <si>
+    <t>plus Enhanced Price Display:</t>
+  </si>
+  <si>
+    <t>Frontend Image Management Interface</t>
   </si>
 </sst>
 </file>
@@ -798,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -839,6 +860,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1146,7 +1179,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,22 +1462,22 @@
     </row>
     <row r="11" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -1455,22 +1488,22 @@
     </row>
     <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
@@ -1481,22 +1514,22 @@
     </row>
     <row r="13" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="F13" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -1507,22 +1540,22 @@
     </row>
     <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -1552,17 +1585,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="3" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="113.42578125" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1574,16 +1609,16 @@
         <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>22</v>
@@ -1601,33 +1636,33 @@
         <v>55</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I2" s="11">
         <v>45875</v>
@@ -1636,31 +1671,31 @@
         <v>45875</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I3" s="11">
         <v>45876</v>
@@ -1681,16 +1716,16 @@
         <v>77</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I4" s="11">
         <v>45876</v>
@@ -1711,16 +1746,16 @@
         <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I5" s="11">
         <v>45876</v>
@@ -1741,16 +1776,16 @@
         <v>81</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I6" s="11">
         <v>45876</v>
@@ -1761,26 +1796,26 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I7" s="11">
         <v>45877</v>
@@ -1791,26 +1826,26 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I8" s="11">
         <v>45880</v>
@@ -1821,26 +1856,26 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I9" s="11">
         <v>45880</v>
@@ -1851,26 +1886,26 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I10" s="11">
         <v>45880</v>
@@ -1881,28 +1916,28 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I11" s="11">
         <v>45881</v>
@@ -1913,28 +1948,28 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I12" s="11">
         <v>45881</v>
@@ -1945,28 +1980,28 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I13" s="11">
         <v>45881</v>
@@ -1977,28 +2012,28 @@
     </row>
     <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I14" s="14">
         <v>45881</v>
@@ -2019,7 +2054,9 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="I16" s="14"/>
@@ -2027,60 +2064,93 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I17" s="11">
         <v>45881</v>
       </c>
       <c r="L17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
+      <c r="H18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="14">
+        <v>45883</v>
+      </c>
+      <c r="J18" s="14">
+        <v>45883</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
+      <c r="H19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="14">
+        <v>45883</v>
+      </c>
+      <c r="J19" s="14">
+        <v>45883</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>61</v>
@@ -2089,400 +2159,631 @@
       <c r="D20" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="G20">
         <v>2</v>
       </c>
+      <c r="H20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="14">
+        <v>45883</v>
+      </c>
+      <c r="J20" s="14">
+        <v>45883</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="14">
+        <v>45884</v>
+      </c>
+      <c r="J21" s="14">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" s="8" t="s">
-        <v>99</v>
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
+      <c r="H22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="14">
+        <v>45884</v>
+      </c>
+      <c r="J22" s="14">
+        <v>45884</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
+      <c r="H23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="14">
+        <v>45884</v>
+      </c>
+      <c r="J23" s="14">
+        <v>45884</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="14">
+        <v>45884</v>
+      </c>
+      <c r="J24" s="14">
+        <v>45884</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="14">
+        <v>45885</v>
+      </c>
+      <c r="J25" s="14">
+        <v>45885</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
+      <c r="H26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="14">
+        <v>45885</v>
+      </c>
+      <c r="J26" s="14">
+        <v>45885</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="14">
+        <v>45887</v>
+      </c>
+      <c r="J27" s="14">
+        <v>45887</v>
+      </c>
+      <c r="L27" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>109</v>
+        <v>136</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="14">
+        <v>45887</v>
+      </c>
+      <c r="J28" s="14">
+        <v>45887</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
+      <c r="H29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="14">
+        <v>45887</v>
+      </c>
+      <c r="J29" s="14">
+        <v>45887</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="8"/>
+        <v>133</v>
+      </c>
       <c r="D30" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
+      <c r="H30" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="14">
+        <v>45887</v>
+      </c>
+      <c r="J30" s="14">
+        <v>45887</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>140</v>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" t="s">
+        <v>188</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
+      <c r="H31" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="14">
+        <v>45888</v>
+      </c>
+      <c r="J31" s="14">
+        <v>45888</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>142</v>
+        <v>105</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="H32" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="14">
+        <v>45888</v>
+      </c>
+      <c r="J32" s="14">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="14">
+        <v>45888</v>
+      </c>
+      <c r="J33" s="14">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="14">
+        <v>45888</v>
+      </c>
+      <c r="J34" s="14">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>147</v>
+        <v>111</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="8" t="s">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" t="s">
-        <v>151</v>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>146</v>
+        <v>18</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" t="s">
+        <v>148</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2490,14 +2791,14 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -2505,14 +2806,14 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -2520,14 +2821,14 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" t="s">
-        <v>154</v>
+        <v>129</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -2535,14 +2836,14 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>70</v>
+      <c r="C52" s="10"/>
+      <c r="D52" t="s">
+        <v>150</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -2550,13 +2851,14 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>131</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -2564,42 +2866,63 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="8"/>
+        <v>129</v>
+      </c>
       <c r="D55" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L63" t="s">
-        <v>149</v>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">

--- a/documentation/Planification-Taches.xlsx
+++ b/documentation/Planification-Taches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\WebDynamique\web_dynamique_24632-main-LATEST\projetweb2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEA771-9735-4C6C-8996-F868B0D6653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93961684-38A2-4DE9-AEBF-590A3CAFD5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-735" yWindow="2625" windowWidth="29010" windowHeight="11955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -505,9 +505,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>Create the "Contacter le webmestre" et/ou les page "Contactez-nous" avec pays.</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
   </si>
   <si>
     <t>T3.18</t>
-  </si>
-  <si>
-    <t>ON HOLD</t>
   </si>
   <si>
     <t>US11</t>
@@ -663,27 +657,12 @@
     <t>T2.0</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
     <t>Fix webdev distant server, project architecture and naming convention and enhance github version control</t>
   </si>
   <si>
-    <t>crud user</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>saisir un timbre avec image</t>
-  </si>
-  <si>
-    <t>gestion des image</t>
-  </si>
-  <si>
     <t>update the css/style and check with lord stampee before last sprint and fix burger menu on mobile</t>
   </si>
   <si>
@@ -708,7 +687,37 @@
     <t>plus Enhanced Price Display:</t>
   </si>
   <si>
-    <t>Frontend Image Management Interface</t>
+    <t>with image validation</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>done ish</t>
+  </si>
+  <si>
+    <t>timezone fix</t>
+  </si>
+  <si>
+    <t>0.25h</t>
+  </si>
+  <si>
+    <t>"Archives des enchères passées" page</t>
+  </si>
+  <si>
+    <t>NY EST</t>
+  </si>
+  <si>
+    <t>8/202025</t>
+  </si>
+  <si>
+    <t>update create auction form to be consisten with the others</t>
+  </si>
+  <si>
+    <t>plus cards timer</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -819,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -851,28 +860,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,22 +1183,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="46.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="31.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="46.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
@@ -1460,24 +1461,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>172</v>
+      <c r="D11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -1486,24 +1487,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>173</v>
+      <c r="D12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
@@ -1512,24 +1513,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>174</v>
+      <c r="D13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -1538,41 +1539,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1583,25 +1584,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="113.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="113.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -1609,16 +1610,16 @@
         <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>22</v>
@@ -1639,42 +1640,46 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="H2" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="15">
         <v>45875</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="15">
         <v>45875</v>
       </c>
-      <c r="L2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>128</v>
       </c>
@@ -1685,26 +1690,31 @@
       <c r="D3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="15">
         <v>45876</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="15">
         <v>45876</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>75</v>
       </c>
@@ -1721,20 +1731,25 @@
       <c r="F4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="14">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="15">
         <v>45876</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
         <v>45876</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>78</v>
       </c>
@@ -1748,23 +1763,28 @@
       <c r="E5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="15">
         <v>45876</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="15">
         <v>45876</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
@@ -1778,23 +1798,28 @@
       <c r="E6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="14">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="15">
         <v>45876</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="15">
         <v>45876</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>82</v>
       </c>
@@ -1805,26 +1830,31 @@
       <c r="D7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="15">
         <v>45877</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="15">
         <v>45877</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>84</v>
       </c>
@@ -1835,26 +1865,31 @@
       <c r="D8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="15">
         <v>45880</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="15">
         <v>45877</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>86</v>
       </c>
@@ -1865,26 +1900,31 @@
       <c r="D9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="15">
         <v>45880</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="15">
         <v>45880</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>88</v>
       </c>
@@ -1895,200 +1935,236 @@
       <c r="D10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="15">
         <v>45880</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="15">
         <v>45880</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11">
+        <v>164</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="15">
         <v>45881</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="15">
         <v>45881</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="14">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="15">
         <v>45881</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="15">
         <v>45881</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13">
+        <v>159</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="14">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="15">
         <v>45881</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="15">
         <v>45881</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="16">
         <v>45881</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="16">
         <v>45881</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>201</v>
-      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="C17" s="10"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15">
         <v>45881</v>
       </c>
-      <c r="L17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>90</v>
       </c>
@@ -2099,26 +2175,31 @@
       <c r="D18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="16">
         <v>45883</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="16">
         <v>45883</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
@@ -2129,26 +2210,31 @@
       <c r="D19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="14">
         <v>2</v>
       </c>
-      <c r="H19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="16">
         <v>45883</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="16">
         <v>45883</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>94</v>
       </c>
@@ -2159,26 +2245,31 @@
       <c r="D20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="14">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="H20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="16">
         <v>45883</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="16">
         <v>45883</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>95</v>
       </c>
@@ -2189,26 +2280,31 @@
       <c r="D21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="14">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="H21" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="16">
         <v>45884</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="16">
         <v>45884</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>97</v>
       </c>
@@ -2216,61 +2312,73 @@
         <v>59</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22">
+        <v>197</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="14">
         <v>2</v>
       </c>
-      <c r="H22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="14">
+      <c r="H22" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="16">
         <v>45884</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="16">
         <v>45884</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23">
+      <c r="E23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="14">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="14">
+      <c r="H23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="16">
         <v>45884</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="16">
         <v>45884</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>100</v>
       </c>
@@ -2281,26 +2389,31 @@
       <c r="D24" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24">
+      <c r="E24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="14">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="H24" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="16">
         <v>45884</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="16">
         <v>45884</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>102</v>
       </c>
@@ -2311,26 +2424,31 @@
       <c r="D25" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="14">
         <v>2</v>
       </c>
-      <c r="H25" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="14">
+      <c r="H25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="16">
         <v>45885</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="16">
         <v>45885</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>103</v>
       </c>
@@ -2341,26 +2459,31 @@
       <c r="D26" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="14">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="14">
+      <c r="H26" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="16">
         <v>45885</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="16">
         <v>45885</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>132</v>
       </c>
@@ -2371,29 +2494,33 @@
       <c r="D27" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="16" t="s">
+      <c r="E27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="14">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="16">
         <v>45887</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="16">
         <v>45887</v>
       </c>
-      <c r="L27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>135</v>
       </c>
@@ -2404,26 +2531,31 @@
       <c r="D28" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28">
+      <c r="E28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="14">
         <v>2</v>
       </c>
-      <c r="H28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="14">
+      <c r="H28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="16">
         <v>45887</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="16">
         <v>45887</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>137</v>
       </c>
@@ -2434,81 +2566,99 @@
       <c r="D29" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29">
+      <c r="E29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="14">
         <v>2</v>
       </c>
-      <c r="H29" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="14">
+      <c r="H29" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="16">
         <v>45887</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="16">
         <v>45887</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="C30" s="14"/>
       <c r="D30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30">
+      <c r="E30" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="14">
         <v>2</v>
       </c>
-      <c r="H30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="14">
+      <c r="H30" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" s="16">
         <v>45887</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="16">
         <v>45887</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31">
+      <c r="D31" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="14">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" s="14">
+      <c r="H31" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="16">
         <v>45888</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="16">
         <v>45888</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>104</v>
       </c>
@@ -2516,31 +2666,36 @@
         <v>20</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32">
+      <c r="E32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="14">
         <v>2</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="H32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="16">
         <v>45888</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="16">
         <v>45888</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>106</v>
       </c>
@@ -2548,385 +2703,1087 @@
         <v>20</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="14">
         <v>2</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="14">
+      <c r="H33" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="16">
         <v>45888</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="16">
         <v>45888</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I34" s="14">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="14">
+        <v>2</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="16">
         <v>45888</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="16">
         <v>45888</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="14">
+        <v>2</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="16">
+        <v>45888</v>
+      </c>
+      <c r="J35" s="16">
+        <v>45888</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="14">
+        <v>3</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>110</v>
+      <c r="J37" s="16">
+        <v>45889</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38">
+      <c r="C38" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" s="16">
+        <v>45889</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39">
+        <v>109</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="16">
+        <v>45889</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="14">
+        <v>3</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="16">
+        <v>45889</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41">
+        <v>144</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="H41" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" s="16">
+        <v>45889</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="14">
+        <v>3</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" s="16">
+        <v>45889</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43">
+        <v>114</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="16">
+        <v>45890</v>
+      </c>
+      <c r="J43" s="16">
+        <v>45890</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="14">
+        <v>3</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="16">
+        <v>45890</v>
+      </c>
+      <c r="J44" s="16">
+        <v>45890</v>
+      </c>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="1:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45">
+        <v>153</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" s="16">
+        <v>45891</v>
+      </c>
+      <c r="J45" s="16">
+        <v>45891</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+    </row>
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46">
+        <v>18</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" s="16">
+        <v>45891</v>
+      </c>
+      <c r="J46" s="16">
+        <v>45891</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47">
+        <v>143</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="16">
+        <v>45895</v>
+      </c>
+      <c r="J47" s="16">
+        <v>45895</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48">
+        <v>66</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="16">
+        <v>45895</v>
+      </c>
+      <c r="J48" s="16">
+        <v>45895</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49">
+        <v>67</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="16">
+        <v>45895</v>
+      </c>
+      <c r="J49" s="16">
+        <v>45895</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50">
+        <v>68</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="16">
+        <v>45896</v>
+      </c>
+      <c r="J50" s="16">
+        <v>45896</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="16">
+        <v>45896</v>
+      </c>
+      <c r="J51" s="16">
+        <v>45896</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" s="16">
+        <v>45896</v>
+      </c>
+      <c r="J52" s="16">
+        <v>45896</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="16">
+        <v>45896</v>
+      </c>
+      <c r="J53" s="16">
+        <v>45896</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54">
+      <c r="C54" s="10"/>
+      <c r="D54" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" s="16">
+        <v>45897</v>
+      </c>
+      <c r="J54" s="16">
+        <v>45897</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>129</v>
       </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55" s="14">
+        <v>3</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" s="16">
+        <v>45897</v>
+      </c>
+      <c r="J55" s="16">
+        <v>45897</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="14">
+        <v>3</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" s="16">
+        <v>45897</v>
+      </c>
+      <c r="J56" s="16">
+        <v>45897</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G55">
+      <c r="E57" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>187</v>
-      </c>
-      <c r="B56" s="10" t="s">
+      <c r="H57" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="16">
+        <v>45897</v>
+      </c>
+      <c r="J57" s="16">
+        <v>45897</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C58" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G56">
+      <c r="F58" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="13"/>
+      <c r="H58" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="16">
+        <v>45897</v>
+      </c>
+      <c r="J58" s="16">
+        <v>45897</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C77" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documentation/Planification-Taches.xlsx
+++ b/documentation/Planification-Taches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\WebDynamique\web_dynamique_24632-main-LATEST\projetweb2\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\WebDynamique\web_dynamique_24632-main-LATEST\projetweb1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93961684-38A2-4DE9-AEBF-590A3CAFD5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DB7154-D390-4DA9-9CAD-EA731826267A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -718,6 +718,27 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>populate_database</t>
+  </si>
+  <si>
+    <t>make a script to populate site with real fake auctions</t>
+  </si>
+  <si>
+    <t>fix image upload bug</t>
+  </si>
+  <si>
+    <t>fix webdev server bug</t>
+  </si>
+  <si>
+    <t>make user guide</t>
+  </si>
+  <si>
+    <t>add screenshots and finalize user guide</t>
   </si>
 </sst>
 </file>
@@ -828,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -874,6 +895,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,7 +1619,7 @@
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" customWidth="1"/>
+    <col min="4" max="4" width="86.109375" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
@@ -3586,7 +3610,6 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
@@ -3596,16 +3619,23 @@
       <c r="O59" s="14"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>215</v>
+      </c>
       <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="C60" t="s">
+        <v>218</v>
+      </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
+      <c r="I60" s="16">
+        <v>45898</v>
+      </c>
+      <c r="J60" s="16">
+        <v>45898</v>
+      </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
@@ -3615,14 +3645,22 @@
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>217</v>
+      </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
+      <c r="I61" s="16">
+        <v>45898</v>
+      </c>
+      <c r="J61" s="16">
+        <v>45898</v>
+      </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -3632,14 +3670,20 @@
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="14" t="s">
+        <v>216</v>
+      </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
+      <c r="I62" s="16">
+        <v>45898</v>
+      </c>
+      <c r="J62" s="16">
+        <v>45898</v>
+      </c>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
@@ -3649,7 +3693,9 @@
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -3666,7 +3712,9 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="C64" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
